--- a/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业固定资产.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业固定资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1391 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>156.03025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.11304</v>
+      </c>
       <c r="D2" t="n">
-        <v>37.7092</v>
+        <v>100.61997</v>
       </c>
       <c r="E2" t="n">
-        <v>60.7904</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>157.13589</v>
+      </c>
+      <c r="F2" t="n">
+        <v>183.37054</v>
+      </c>
       <c r="G2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>217.97449</v>
+      </c>
+      <c r="H2" t="n">
+        <v>109.83977</v>
+      </c>
+      <c r="I2" t="n">
+        <v>139.35659</v>
+      </c>
+      <c r="J2" t="n">
+        <v>132.4969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>549.01305</v>
+      </c>
       <c r="L2" t="n">
-        <v>20.4965</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>1224.42671</v>
+      </c>
+      <c r="M2" t="n">
+        <v>644.92796</v>
+      </c>
       <c r="N2" t="n">
-        <v>1048.6</v>
+        <v>1233.02763</v>
       </c>
       <c r="O2" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>176.9451</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1908.55823</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>96.41228</v>
+      </c>
       <c r="R2" t="n">
-        <v>2.1983</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>18.37249</v>
+      </c>
+      <c r="S2" t="n">
+        <v>611.66533</v>
+      </c>
+      <c r="T2" t="n">
+        <v>22.4777</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.33357</v>
+      </c>
       <c r="V2" t="n">
-        <v>158.6783</v>
+        <v>120.7898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>273.5126</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.9336</v>
+      </c>
       <c r="D3" t="n">
-        <v>38.9523</v>
+        <v>106.6017</v>
       </c>
       <c r="E3" t="n">
-        <v>70.31870000000001</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>134.8769</v>
+      </c>
+      <c r="F3" t="n">
+        <v>226.1596</v>
+      </c>
       <c r="G3" t="n">
-        <v>6.6842</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>205.1762</v>
+      </c>
+      <c r="H3" t="n">
+        <v>141.1915</v>
+      </c>
+      <c r="I3" t="n">
+        <v>179.2524</v>
+      </c>
+      <c r="J3" t="n">
+        <v>131.7701</v>
+      </c>
+      <c r="K3" t="n">
+        <v>712.1698</v>
+      </c>
       <c r="L3" t="n">
-        <v>26.004</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>1551.3948</v>
+      </c>
+      <c r="M3" t="n">
+        <v>806.9133</v>
+      </c>
       <c r="N3" t="n">
-        <v>1085.4337</v>
+        <v>1453.9427</v>
       </c>
       <c r="O3" t="n">
-        <v>41.6466</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>182.0602</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2230.8683</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>99.07989999999999</v>
+      </c>
       <c r="R3" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>21.7446</v>
+      </c>
+      <c r="S3" t="n">
+        <v>703.6246</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20.7442</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9.3224</v>
+      </c>
       <c r="V3" t="n">
-        <v>110.7774</v>
+        <v>137.734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>196.01343</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.42077</v>
+      </c>
       <c r="D4" t="n">
-        <v>44.8072</v>
+        <v>123.14715</v>
       </c>
       <c r="E4" t="n">
-        <v>85.31100000000001</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>159.7468</v>
+      </c>
+      <c r="F4" t="n">
+        <v>251.08524</v>
+      </c>
       <c r="G4" t="n">
-        <v>5.4726</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>229.27962</v>
+      </c>
+      <c r="H4" t="n">
+        <v>156.45376</v>
+      </c>
+      <c r="I4" t="n">
+        <v>155.30742</v>
+      </c>
+      <c r="J4" t="n">
+        <v>179.85599</v>
+      </c>
+      <c r="K4" t="n">
+        <v>765.7859</v>
+      </c>
       <c r="L4" t="n">
-        <v>42.8728</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>1809.33305</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1006.93842</v>
+      </c>
       <c r="N4" t="n">
-        <v>1089.2778</v>
+        <v>1579.49796</v>
       </c>
       <c r="O4" t="n">
-        <v>41.1919</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>247.57732</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2382.35444</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>113.8909</v>
+      </c>
       <c r="R4" t="n">
-        <v>11.2363</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>37.32019</v>
+      </c>
+      <c r="S4" t="n">
+        <v>739.09225</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14.97341</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="V4" t="n">
-        <v>97.7863</v>
+        <v>174.73605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.67442</v>
+        <v>304.0074</v>
       </c>
       <c r="C5" t="n">
-        <v>1.64533</v>
+        <v>8.36947</v>
       </c>
       <c r="D5" t="n">
-        <v>47.82841</v>
+        <v>157.16404</v>
       </c>
       <c r="E5" t="n">
-        <v>85.06229999999999</v>
+        <v>169.94531</v>
       </c>
       <c r="F5" t="n">
-        <v>80.82643</v>
+        <v>315.07811</v>
       </c>
       <c r="G5" t="n">
-        <v>104.67279</v>
+        <v>310.93427</v>
       </c>
       <c r="H5" t="n">
-        <v>52.5752</v>
+        <v>257.99175</v>
       </c>
       <c r="I5" t="n">
-        <v>45.49774</v>
+        <v>170.57801</v>
       </c>
       <c r="J5" t="n">
-        <v>33.73931</v>
+        <v>237.15797</v>
       </c>
       <c r="K5" t="n">
-        <v>79.51124</v>
+        <v>819.39211</v>
       </c>
       <c r="L5" t="n">
-        <v>147.53748</v>
+        <v>2133.4485</v>
       </c>
       <c r="M5" t="n">
-        <v>60.09944</v>
+        <v>1270.1319</v>
       </c>
       <c r="N5" t="n">
-        <v>952.01797</v>
+        <v>1769.04296</v>
       </c>
       <c r="O5" t="n">
-        <v>54.71579</v>
+        <v>338.08999</v>
       </c>
       <c r="P5" t="n">
-        <v>1219.94572</v>
+        <v>2717.89262</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.24509</v>
+        <v>143.13703</v>
       </c>
       <c r="R5" t="n">
-        <v>5.02102</v>
+        <v>34.63283</v>
       </c>
       <c r="S5" t="n">
-        <v>230.33655</v>
+        <v>870.16225</v>
       </c>
       <c r="T5" t="n">
-        <v>29.99252</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
+        <v>19.69332</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.43782</v>
+      </c>
       <c r="V5" t="n">
-        <v>67.58817000000001</v>
+        <v>267.55031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.48414</v>
+        <v>362.6559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.89139</v>
+        <v>12.3994</v>
       </c>
       <c r="D6" t="n">
-        <v>86.57826</v>
+        <v>174.53002</v>
       </c>
       <c r="E6" t="n">
-        <v>123.44683</v>
+        <v>158.30053</v>
       </c>
       <c r="F6" t="n">
-        <v>75.97866</v>
+        <v>315.30296</v>
       </c>
       <c r="G6" t="n">
-        <v>145.02616</v>
+        <v>298.40983</v>
       </c>
       <c r="H6" t="n">
-        <v>47.99068</v>
+        <v>271.86439</v>
       </c>
       <c r="I6" t="n">
-        <v>51.05509</v>
+        <v>163.65532</v>
       </c>
       <c r="J6" t="n">
-        <v>61.75784</v>
+        <v>241.92256</v>
       </c>
       <c r="K6" t="n">
-        <v>227.78811</v>
+        <v>891.22701</v>
       </c>
       <c r="L6" t="n">
-        <v>423.71767</v>
+        <v>2409.58374</v>
       </c>
       <c r="M6" t="n">
-        <v>184.61819</v>
+        <v>1474.32618</v>
       </c>
       <c r="N6" t="n">
-        <v>1047.91127</v>
+        <v>1903.0951</v>
       </c>
       <c r="O6" t="n">
-        <v>86.06949</v>
+        <v>360.22042</v>
       </c>
       <c r="P6" t="n">
-        <v>1455.00846</v>
+        <v>2907.87759</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.63088999999999</v>
+        <v>159.43228</v>
       </c>
       <c r="R6" t="n">
-        <v>10.69955</v>
+        <v>37.26735</v>
       </c>
       <c r="S6" t="n">
-        <v>368.58919</v>
+        <v>930.45029</v>
       </c>
       <c r="T6" t="n">
-        <v>12.39317</v>
+        <v>24.40154</v>
       </c>
       <c r="U6" t="n">
-        <v>0.35216</v>
+        <v>22.8196</v>
       </c>
       <c r="V6" t="n">
-        <v>73.31591</v>
+        <v>637.14187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.20647</v>
+        <v>350.7683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6304999999999999</v>
+        <v>14.7178</v>
       </c>
       <c r="D7" t="n">
-        <v>57.33835</v>
+        <v>184.3264</v>
       </c>
       <c r="E7" t="n">
-        <v>101.2752</v>
+        <v>162.9658</v>
       </c>
       <c r="F7" t="n">
-        <v>66.94814</v>
+        <v>295.3326</v>
       </c>
       <c r="G7" t="n">
-        <v>127.74059</v>
+        <v>301.1625</v>
       </c>
       <c r="H7" t="n">
-        <v>51.76074</v>
+        <v>332.5355</v>
       </c>
       <c r="I7" t="n">
-        <v>48.11276</v>
+        <v>160.6497</v>
       </c>
       <c r="J7" t="n">
-        <v>44.15041</v>
+        <v>258.9424</v>
       </c>
       <c r="K7" t="n">
-        <v>227.75145</v>
+        <v>931.2388999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>409.32914</v>
+        <v>2526.2514</v>
       </c>
       <c r="M7" t="n">
-        <v>173.24966</v>
+        <v>1546.3806</v>
       </c>
       <c r="N7" t="n">
-        <v>830.37477</v>
+        <v>2077.3081</v>
       </c>
       <c r="O7" t="n">
-        <v>59.91068</v>
+        <v>377.0755</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.57528</v>
+        <v>3110.9312</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.36369</v>
+        <v>171.3299</v>
       </c>
       <c r="R7" t="n">
-        <v>9.94181</v>
+        <v>33.6313</v>
       </c>
       <c r="S7" t="n">
-        <v>344.82686</v>
+        <v>954.9474</v>
       </c>
       <c r="T7" t="n">
-        <v>7.45082</v>
+        <v>21.552</v>
       </c>
       <c r="U7" t="n">
-        <v>0.16366</v>
+        <v>39.9281</v>
       </c>
       <c r="V7" t="n">
-        <v>51.26793</v>
+        <v>357.5068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.99630000000001</v>
+        <v>352.9305</v>
       </c>
       <c r="C8" t="n">
-        <v>2.815</v>
+        <v>18.6776</v>
       </c>
       <c r="D8" t="n">
-        <v>87.25369999999999</v>
+        <v>213.3155</v>
       </c>
       <c r="E8" t="n">
-        <v>147.7826</v>
+        <v>171.9249</v>
       </c>
       <c r="F8" t="n">
-        <v>75.75279999999999</v>
+        <v>380.4719</v>
       </c>
       <c r="G8" t="n">
-        <v>191.9739</v>
+        <v>296.3586</v>
       </c>
       <c r="H8" t="n">
-        <v>57.5263</v>
+        <v>392.5063</v>
       </c>
       <c r="I8" t="n">
-        <v>51.8692</v>
+        <v>219.3789</v>
       </c>
       <c r="J8" t="n">
-        <v>58.9362</v>
+        <v>261.9649</v>
       </c>
       <c r="K8" t="n">
-        <v>297.6582</v>
+        <v>1091.9996</v>
       </c>
       <c r="L8" t="n">
-        <v>595.8527</v>
+        <v>2782.9526</v>
       </c>
       <c r="M8" t="n">
-        <v>281.5672</v>
+        <v>1638.2459</v>
       </c>
       <c r="N8" t="n">
-        <v>1225.234</v>
+        <v>2178.5902</v>
       </c>
       <c r="O8" t="n">
-        <v>94.4864</v>
+        <v>379.3752</v>
       </c>
       <c r="P8" t="n">
-        <v>1868.3169</v>
+        <v>3206.671</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.8827</v>
+        <v>198.5146</v>
       </c>
       <c r="R8" t="n">
-        <v>12.166</v>
+        <v>40.2299</v>
       </c>
       <c r="S8" t="n">
-        <v>584.4482</v>
+        <v>952.4489</v>
       </c>
       <c r="T8" t="n">
-        <v>8.9855</v>
+        <v>23.6653</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5375</v>
+        <v>86.94370000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>76.36750000000001</v>
+        <v>380.0062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.05257</v>
+        <v>282.085</v>
       </c>
       <c r="C9" t="n">
-        <v>3.06408</v>
+        <v>25.521</v>
       </c>
       <c r="D9" t="n">
-        <v>91.57446</v>
+        <v>192.625</v>
       </c>
       <c r="E9" t="n">
-        <v>152.12524</v>
+        <v>175.758</v>
       </c>
       <c r="F9" t="n">
-        <v>101.49393</v>
+        <v>326.367</v>
       </c>
       <c r="G9" t="n">
-        <v>196.55542</v>
+        <v>315.985</v>
       </c>
       <c r="H9" t="n">
-        <v>68.59224</v>
+        <v>348.153</v>
       </c>
       <c r="I9" t="n">
-        <v>61.71036</v>
+        <v>172.612</v>
       </c>
       <c r="J9" t="n">
-        <v>81.80274</v>
+        <v>222.383</v>
       </c>
       <c r="K9" t="n">
-        <v>295.23384</v>
+        <v>1109.721</v>
       </c>
       <c r="L9" t="n">
-        <v>683.43951</v>
+        <v>2885.645</v>
       </c>
       <c r="M9" t="n">
-        <v>372.20864</v>
+        <v>1727.206</v>
       </c>
       <c r="N9" t="n">
-        <v>1243.32249</v>
+        <v>2160.492</v>
       </c>
       <c r="O9" t="n">
-        <v>110.07645</v>
+        <v>336.64</v>
       </c>
       <c r="P9" t="n">
-        <v>1938.20633</v>
+        <v>3118.629</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.19401000000001</v>
+        <v>177.458</v>
       </c>
       <c r="R9" t="n">
-        <v>14.65354</v>
+        <v>33.792</v>
       </c>
       <c r="S9" t="n">
-        <v>641.4488</v>
+        <v>888.4589999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>22.26289</v>
+        <v>23.607</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25965</v>
+        <v>103.119</v>
       </c>
       <c r="V9" t="n">
-        <v>75.03869</v>
+        <v>374.439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.3871</v>
+        <v>236.1679</v>
       </c>
       <c r="C10" t="n">
-        <v>5.4645</v>
+        <v>25.2415</v>
       </c>
       <c r="D10" t="n">
-        <v>119.7908</v>
+        <v>151.6564</v>
       </c>
       <c r="E10" t="n">
-        <v>183.8719</v>
+        <v>184.9546</v>
       </c>
       <c r="F10" t="n">
-        <v>160.2739</v>
+        <v>276.6464</v>
       </c>
       <c r="G10" t="n">
-        <v>234.807</v>
+        <v>318.7087</v>
       </c>
       <c r="H10" t="n">
-        <v>100.9533</v>
+        <v>309.9112</v>
       </c>
       <c r="I10" t="n">
-        <v>114.6197</v>
+        <v>136.1618</v>
       </c>
       <c r="J10" t="n">
-        <v>132.7721</v>
+        <v>193.0813</v>
       </c>
       <c r="K10" t="n">
-        <v>653.1229</v>
+        <v>999.5196999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>1285.223</v>
+        <v>2714.8173</v>
       </c>
       <c r="M10" t="n">
-        <v>604.9554000000001</v>
+        <v>1594.3384</v>
       </c>
       <c r="N10" t="n">
-        <v>1403.0164</v>
+        <v>2033.1345</v>
       </c>
       <c r="O10" t="n">
-        <v>179.7286</v>
+        <v>289.4155</v>
       </c>
       <c r="P10" t="n">
-        <v>2206.8631</v>
+        <v>2910.4803</v>
       </c>
       <c r="Q10" t="n">
-        <v>116.1737</v>
+        <v>130.1295</v>
       </c>
       <c r="R10" t="n">
-        <v>19.2414</v>
+        <v>26.269</v>
       </c>
       <c r="S10" t="n">
-        <v>739.9476</v>
+        <v>823.1888</v>
       </c>
       <c r="T10" t="n">
-        <v>23.1546</v>
+        <v>17.0875</v>
       </c>
       <c r="U10" t="n">
-        <v>3.8017</v>
+        <v>93.98869999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>118.032</v>
+        <v>328.8494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.48915</v>
+        <v>170.1267</v>
       </c>
       <c r="C11" t="n">
-        <v>6.61971</v>
+        <v>18.0322</v>
       </c>
       <c r="D11" t="n">
-        <v>84.85124</v>
+        <v>144.0941</v>
       </c>
       <c r="E11" t="n">
-        <v>149.15837</v>
+        <v>168.187</v>
       </c>
       <c r="F11" t="n">
-        <v>121.62688</v>
+        <v>149.7617</v>
       </c>
       <c r="G11" t="n">
-        <v>187.9377</v>
+        <v>254.6243</v>
       </c>
       <c r="H11" t="n">
-        <v>82.23384</v>
+        <v>274.0295</v>
       </c>
       <c r="I11" t="n">
-        <v>87.38670999999999</v>
+        <v>86.9153</v>
       </c>
       <c r="J11" t="n">
-        <v>109.67856</v>
+        <v>181.9169</v>
       </c>
       <c r="K11" t="n">
-        <v>523.41941</v>
+        <v>1007.4185</v>
       </c>
       <c r="L11" t="n">
-        <v>1066.60241</v>
+        <v>2420.1982</v>
       </c>
       <c r="M11" t="n">
-        <v>517.9939900000001</v>
+        <v>1290.9295</v>
       </c>
       <c r="N11" t="n">
-        <v>1140.84065</v>
+        <v>1772.0629</v>
       </c>
       <c r="O11" t="n">
-        <v>151.82774</v>
+        <v>258.3203</v>
       </c>
       <c r="P11" t="n">
-        <v>1747.43046</v>
+        <v>2563.4598</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.43241999999999</v>
+        <v>107.4318</v>
       </c>
       <c r="R11" t="n">
-        <v>14.72619</v>
+        <v>18.5109</v>
       </c>
       <c r="S11" t="n">
-        <v>560.5705</v>
+        <v>747.4637</v>
       </c>
       <c r="T11" t="n">
-        <v>16.89179</v>
+        <v>10.1219</v>
       </c>
       <c r="U11" t="n">
-        <v>3.23457</v>
+        <v>91.10039999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>98.85257</v>
+        <v>231.8217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156.03025</v>
+        <v>156.9525</v>
       </c>
       <c r="C12" t="n">
-        <v>6.11304</v>
+        <v>19.821</v>
       </c>
       <c r="D12" t="n">
-        <v>100.61997</v>
+        <v>120.0683</v>
       </c>
       <c r="E12" t="n">
-        <v>157.13589</v>
+        <v>199.9191</v>
       </c>
       <c r="F12" t="n">
-        <v>183.37054</v>
+        <v>137.4392</v>
       </c>
       <c r="G12" t="n">
-        <v>217.97449</v>
+        <v>282.3652</v>
       </c>
       <c r="H12" t="n">
-        <v>109.83977</v>
+        <v>304.1044</v>
       </c>
       <c r="I12" t="n">
-        <v>139.35659</v>
+        <v>67.1913</v>
       </c>
       <c r="J12" t="n">
-        <v>132.4969</v>
+        <v>193.1499</v>
       </c>
       <c r="K12" t="n">
-        <v>549.01305</v>
+        <v>1155.3606</v>
       </c>
       <c r="L12" t="n">
-        <v>1224.42671</v>
+        <v>2555.129</v>
       </c>
       <c r="M12" t="n">
-        <v>644.92796</v>
+        <v>1275.1562</v>
       </c>
       <c r="N12" t="n">
-        <v>1233.02763</v>
+        <v>1490.0806</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9451</v>
+        <v>255.8549</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.55823</v>
+        <v>2157.3512</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.41228</v>
+        <v>106.079</v>
       </c>
       <c r="R12" t="n">
-        <v>18.37249</v>
+        <v>15.5584</v>
       </c>
       <c r="S12" t="n">
-        <v>611.66533</v>
+        <v>617.0675</v>
       </c>
       <c r="T12" t="n">
-        <v>22.4777</v>
+        <v>9.6919</v>
       </c>
       <c r="U12" t="n">
-        <v>4.33357</v>
+        <v>133.0232</v>
       </c>
       <c r="V12" t="n">
-        <v>120.7898</v>
+        <v>246.2848</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>273.5126</v>
+        <v>171.8018</v>
       </c>
       <c r="C13" t="n">
-        <v>4.9336</v>
+        <v>15.7706</v>
       </c>
       <c r="D13" t="n">
-        <v>106.6017</v>
+        <v>143.6008</v>
       </c>
       <c r="E13" t="n">
-        <v>134.8769</v>
+        <v>215.268</v>
       </c>
       <c r="F13" t="n">
-        <v>226.1596</v>
+        <v>130.6491</v>
       </c>
       <c r="G13" t="n">
-        <v>205.1762</v>
+        <v>292.9651</v>
       </c>
       <c r="H13" t="n">
-        <v>141.1915</v>
+        <v>320.5508</v>
       </c>
       <c r="I13" t="n">
-        <v>179.2524</v>
+        <v>68.48699999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7701</v>
+        <v>190.8596</v>
       </c>
       <c r="K13" t="n">
-        <v>712.1698</v>
+        <v>1215.9418</v>
       </c>
       <c r="L13" t="n">
-        <v>1551.3948</v>
+        <v>2684.3256</v>
       </c>
       <c r="M13" t="n">
-        <v>806.9133</v>
+        <v>1355.7095</v>
       </c>
       <c r="N13" t="n">
-        <v>1453.9427</v>
+        <v>1446.9159</v>
       </c>
       <c r="O13" t="n">
-        <v>182.0602</v>
+        <v>263.9633</v>
       </c>
       <c r="P13" t="n">
-        <v>2230.8683</v>
+        <v>2121.4549</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.07989999999999</v>
+        <v>128.882</v>
       </c>
       <c r="R13" t="n">
-        <v>21.7446</v>
+        <v>15.1388</v>
       </c>
       <c r="S13" t="n">
-        <v>703.6246</v>
+        <v>620.7221</v>
       </c>
       <c r="T13" t="n">
-        <v>20.7442</v>
+        <v>8.878</v>
       </c>
       <c r="U13" t="n">
-        <v>9.3224</v>
+        <v>147.0993</v>
       </c>
       <c r="V13" t="n">
-        <v>137.734</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>196.01343</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6.42077</v>
-      </c>
-      <c r="D14" t="n">
-        <v>123.14715</v>
-      </c>
-      <c r="E14" t="n">
-        <v>159.7468</v>
-      </c>
-      <c r="F14" t="n">
-        <v>251.08524</v>
-      </c>
-      <c r="G14" t="n">
-        <v>229.27962</v>
-      </c>
-      <c r="H14" t="n">
-        <v>156.45376</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155.30742</v>
-      </c>
-      <c r="J14" t="n">
-        <v>179.85599</v>
-      </c>
-      <c r="K14" t="n">
-        <v>765.7859</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1809.33305</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1006.93842</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1579.49796</v>
-      </c>
-      <c r="O14" t="n">
-        <v>247.57732</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2382.35444</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>113.8909</v>
-      </c>
-      <c r="R14" t="n">
-        <v>37.32019</v>
-      </c>
-      <c r="S14" t="n">
-        <v>739.09225</v>
-      </c>
-      <c r="T14" t="n">
-        <v>14.97341</v>
-      </c>
-      <c r="U14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="V14" t="n">
-        <v>174.73605</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>304.0074</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.36947</v>
-      </c>
-      <c r="D15" t="n">
-        <v>157.16404</v>
-      </c>
-      <c r="E15" t="n">
-        <v>169.94531</v>
-      </c>
-      <c r="F15" t="n">
-        <v>315.07811</v>
-      </c>
-      <c r="G15" t="n">
-        <v>310.93427</v>
-      </c>
-      <c r="H15" t="n">
-        <v>257.99175</v>
-      </c>
-      <c r="I15" t="n">
-        <v>170.57801</v>
-      </c>
-      <c r="J15" t="n">
-        <v>237.15797</v>
-      </c>
-      <c r="K15" t="n">
-        <v>819.39211</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2133.4485</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1270.1319</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1769.04296</v>
-      </c>
-      <c r="O15" t="n">
-        <v>338.08999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2717.89262</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>143.13703</v>
-      </c>
-      <c r="R15" t="n">
-        <v>34.63283</v>
-      </c>
-      <c r="S15" t="n">
-        <v>870.16225</v>
-      </c>
-      <c r="T15" t="n">
-        <v>19.69332</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13.43782</v>
-      </c>
-      <c r="V15" t="n">
-        <v>267.55031</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>362.6559</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12.3994</v>
-      </c>
-      <c r="D16" t="n">
-        <v>174.53002</v>
-      </c>
-      <c r="E16" t="n">
-        <v>158.30053</v>
-      </c>
-      <c r="F16" t="n">
-        <v>315.30296</v>
-      </c>
-      <c r="G16" t="n">
-        <v>298.40983</v>
-      </c>
-      <c r="H16" t="n">
-        <v>271.86439</v>
-      </c>
-      <c r="I16" t="n">
-        <v>163.65532</v>
-      </c>
-      <c r="J16" t="n">
-        <v>241.92256</v>
-      </c>
-      <c r="K16" t="n">
-        <v>891.22701</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2409.58374</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1474.32618</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1903.0951</v>
-      </c>
-      <c r="O16" t="n">
-        <v>360.22042</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2907.87759</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>159.43228</v>
-      </c>
-      <c r="R16" t="n">
-        <v>37.26735</v>
-      </c>
-      <c r="S16" t="n">
-        <v>930.45029</v>
-      </c>
-      <c r="T16" t="n">
-        <v>24.40154</v>
-      </c>
-      <c r="U16" t="n">
-        <v>22.8196</v>
-      </c>
-      <c r="V16" t="n">
-        <v>637.14187</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>350.7683</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14.7178</v>
-      </c>
-      <c r="D17" t="n">
-        <v>184.3264</v>
-      </c>
-      <c r="E17" t="n">
-        <v>162.9658</v>
-      </c>
-      <c r="F17" t="n">
-        <v>295.3326</v>
-      </c>
-      <c r="G17" t="n">
-        <v>301.1625</v>
-      </c>
-      <c r="H17" t="n">
-        <v>332.5355</v>
-      </c>
-      <c r="I17" t="n">
-        <v>160.6497</v>
-      </c>
-      <c r="J17" t="n">
-        <v>258.9424</v>
-      </c>
-      <c r="K17" t="n">
-        <v>931.2388999999999</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2526.2514</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1546.3806</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2077.3081</v>
-      </c>
-      <c r="O17" t="n">
-        <v>377.0755</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3110.9312</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>171.3299</v>
-      </c>
-      <c r="R17" t="n">
-        <v>33.6313</v>
-      </c>
-      <c r="S17" t="n">
-        <v>954.9474</v>
-      </c>
-      <c r="T17" t="n">
-        <v>21.552</v>
-      </c>
-      <c r="U17" t="n">
-        <v>39.9281</v>
-      </c>
-      <c r="V17" t="n">
-        <v>357.5068</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>352.9305</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18.6776</v>
-      </c>
-      <c r="D18" t="n">
-        <v>213.3155</v>
-      </c>
-      <c r="E18" t="n">
-        <v>171.9249</v>
-      </c>
-      <c r="F18" t="n">
-        <v>380.4719</v>
-      </c>
-      <c r="G18" t="n">
-        <v>296.3586</v>
-      </c>
-      <c r="H18" t="n">
-        <v>392.5063</v>
-      </c>
-      <c r="I18" t="n">
-        <v>219.3789</v>
-      </c>
-      <c r="J18" t="n">
-        <v>261.9649</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1091.9996</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2782.9526</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1638.2459</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2178.5902</v>
-      </c>
-      <c r="O18" t="n">
-        <v>379.3752</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3206.671</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>198.5146</v>
-      </c>
-      <c r="R18" t="n">
-        <v>40.2299</v>
-      </c>
-      <c r="S18" t="n">
-        <v>952.4489</v>
-      </c>
-      <c r="T18" t="n">
-        <v>23.6653</v>
-      </c>
-      <c r="U18" t="n">
-        <v>86.94370000000001</v>
-      </c>
-      <c r="V18" t="n">
-        <v>380.0062</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>282.085</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25.521</v>
-      </c>
-      <c r="D19" t="n">
-        <v>192.625</v>
-      </c>
-      <c r="E19" t="n">
-        <v>175.758</v>
-      </c>
-      <c r="F19" t="n">
-        <v>326.367</v>
-      </c>
-      <c r="G19" t="n">
-        <v>315.985</v>
-      </c>
-      <c r="H19" t="n">
-        <v>348.153</v>
-      </c>
-      <c r="I19" t="n">
-        <v>172.612</v>
-      </c>
-      <c r="J19" t="n">
-        <v>222.383</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1109.721</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2885.645</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1727.206</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2160.492</v>
-      </c>
-      <c r="O19" t="n">
-        <v>336.64</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3118.629</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>177.458</v>
-      </c>
-      <c r="R19" t="n">
-        <v>33.792</v>
-      </c>
-      <c r="S19" t="n">
-        <v>888.4589999999999</v>
-      </c>
-      <c r="T19" t="n">
-        <v>23.607</v>
-      </c>
-      <c r="U19" t="n">
-        <v>103.119</v>
-      </c>
-      <c r="V19" t="n">
-        <v>374.439</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>236.1679</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25.2415</v>
-      </c>
-      <c r="D20" t="n">
-        <v>151.6564</v>
-      </c>
-      <c r="E20" t="n">
-        <v>184.9546</v>
-      </c>
-      <c r="F20" t="n">
-        <v>276.6464</v>
-      </c>
-      <c r="G20" t="n">
-        <v>318.7087</v>
-      </c>
-      <c r="H20" t="n">
-        <v>309.9112</v>
-      </c>
-      <c r="I20" t="n">
-        <v>136.1618</v>
-      </c>
-      <c r="J20" t="n">
-        <v>193.0813</v>
-      </c>
-      <c r="K20" t="n">
-        <v>999.5196999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2714.8173</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1594.3384</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2033.1345</v>
-      </c>
-      <c r="O20" t="n">
-        <v>289.4155</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2910.4803</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>130.1295</v>
-      </c>
-      <c r="R20" t="n">
-        <v>26.269</v>
-      </c>
-      <c r="S20" t="n">
-        <v>823.1888</v>
-      </c>
-      <c r="T20" t="n">
-        <v>17.0875</v>
-      </c>
-      <c r="U20" t="n">
-        <v>93.98869999999999</v>
-      </c>
-      <c r="V20" t="n">
-        <v>328.8494</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>170.1267</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18.0322</v>
-      </c>
-      <c r="D21" t="n">
-        <v>144.0941</v>
-      </c>
-      <c r="E21" t="n">
-        <v>168.187</v>
-      </c>
-      <c r="F21" t="n">
-        <v>149.7617</v>
-      </c>
-      <c r="G21" t="n">
-        <v>254.6243</v>
-      </c>
-      <c r="H21" t="n">
-        <v>274.0295</v>
-      </c>
-      <c r="I21" t="n">
-        <v>86.9153</v>
-      </c>
-      <c r="J21" t="n">
-        <v>181.9169</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1007.4185</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2420.1982</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1290.9295</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1772.0629</v>
-      </c>
-      <c r="O21" t="n">
-        <v>258.3203</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2563.4598</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>107.4318</v>
-      </c>
-      <c r="R21" t="n">
-        <v>18.5109</v>
-      </c>
-      <c r="S21" t="n">
-        <v>747.4637</v>
-      </c>
-      <c r="T21" t="n">
-        <v>10.1219</v>
-      </c>
-      <c r="U21" t="n">
-        <v>91.10039999999999</v>
-      </c>
-      <c r="V21" t="n">
-        <v>231.8217</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>156.9525</v>
-      </c>
-      <c r="C22" t="n">
-        <v>19.821</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.0683</v>
-      </c>
-      <c r="E22" t="n">
-        <v>199.9191</v>
-      </c>
-      <c r="F22" t="n">
-        <v>137.4392</v>
-      </c>
-      <c r="G22" t="n">
-        <v>282.3652</v>
-      </c>
-      <c r="H22" t="n">
-        <v>304.1044</v>
-      </c>
-      <c r="I22" t="n">
-        <v>67.1913</v>
-      </c>
-      <c r="J22" t="n">
-        <v>193.1499</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1155.3606</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2555.129</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1275.1562</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1490.0806</v>
-      </c>
-      <c r="O22" t="n">
-        <v>255.8549</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2157.3512</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>106.079</v>
-      </c>
-      <c r="R22" t="n">
-        <v>15.5584</v>
-      </c>
-      <c r="S22" t="n">
-        <v>617.0675</v>
-      </c>
-      <c r="T22" t="n">
-        <v>9.6919</v>
-      </c>
-      <c r="U22" t="n">
-        <v>133.0232</v>
-      </c>
-      <c r="V22" t="n">
-        <v>246.2848</v>
+        <v>268.2116</v>
       </c>
     </row>
   </sheetData>
